--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38360D1F-392B-47A5-AC16-6DE0AB62EA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411586BA-E50F-43B4-8811-D06673FC3660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="5370" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5595" yWindow="3315" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
   <si>
     <t>Student</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Grade</t>
-  </si>
-  <si>
-    <t>This grade will have no effect on your other grades. Even so, please read my comments in the Source_Tested.cpp</t>
   </si>
 </sst>
 </file>
@@ -416,7 +413,7 @@
   <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,19 +523,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
-        <v>69</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="5"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63158919-42EA-4294-A59E-CDE853BA722C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128FAC6F-8806-49AF-8F67-1A439DDA3F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="2970" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
   <si>
     <t>Student</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Grade</t>
-  </si>
-  <si>
-    <t>not submitted - overdue</t>
   </si>
   <si>
     <t>Amit Vaknin</t>
@@ -416,7 +413,7 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,17 +525,11 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="5"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E702E28F-897D-4BA7-9017-1F1E7E3C52DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371279CF-1A6A-44F7-85D8-1374D5B1DFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="3315" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>Student</t>
   </si>
@@ -60,7 +60,19 @@
     <t>Please read the comments in the cpp file I added</t>
   </si>
   <si>
-    <t>Only Created a sphere without code and didn’t create a room</t>
+    <t>4 UE</t>
+  </si>
+  <si>
+    <t>Good Job!</t>
+  </si>
+  <si>
+    <t>5 UE</t>
+  </si>
+  <si>
+    <t>6 UE</t>
+  </si>
+  <si>
+    <t>I Saw the fix</t>
   </si>
 </sst>
 </file>
@@ -431,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,10 +479,11 @@
     <col min="26" max="26" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.42578125" style="3" customWidth="1"/>
     <col min="28" max="28" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="3"/>
+    <col min="29" max="40" width="15.85546875" style="3" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +556,38 @@
       <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -572,10 +615,10 @@
         <v>5</v>
       </c>
       <c r="K2" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="4" t="s">
@@ -588,19 +631,49 @@
         <v>10</v>
       </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="4">
+        <v>100</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="4">
+        <v>100</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -629,8 +702,20 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -659,8 +744,20 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -689,8 +786,20 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -719,8 +828,20 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -749,8 +870,20 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -779,8 +912,20 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -809,8 +954,20 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -839,8 +996,20 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -869,8 +1038,20 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -899,8 +1080,20 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -929,8 +1122,20 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -959,8 +1164,20 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -989,8 +1206,20 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1019,8 +1248,20 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1049,8 +1290,20 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1079,6 +1332,18 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846E735D-26A2-43D0-9E36-299013800FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BC8C17-A510-4716-9465-9E2D8E707149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="2970" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Student</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>Very Good!</t>
+  </si>
+  <si>
+    <t>4 UE</t>
+  </si>
+  <si>
+    <t>Good Job!</t>
+  </si>
+  <si>
+    <t>5 UE</t>
+  </si>
+  <si>
+    <t>You didn’t implement a new action for shooting arrow 2</t>
+  </si>
+  <si>
+    <t>6 UE</t>
   </si>
 </sst>
 </file>
@@ -434,7 +449,7 @@
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -588,17 +603,35 @@
         <v>11</v>
       </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="4">
+        <v>100</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="4">
+        <v>50</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFF482A-CD43-4F91-8E4C-B02F7FF71CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF60B6A1-3C18-4A82-941F-A505AFAC7080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="2970" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Student</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>Mark Guriev</t>
+  </si>
+  <si>
+    <t>4 UE</t>
+  </si>
+  <si>
+    <t>Good Job!</t>
+  </si>
+  <si>
+    <t>5 UE</t>
+  </si>
+  <si>
+    <t>You didn’t implement a new action for shooting arrow 2</t>
+  </si>
+  <si>
+    <t>6 UE</t>
   </si>
 </sst>
 </file>
@@ -431,7 +446,7 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+      <selection activeCell="R2" sqref="R2:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +474,7 @@
     <col min="21" max="21" width="9.140625" style="3"/>
     <col min="22" max="22" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="3" customWidth="1"/>
     <col min="25" max="25" width="9.140625" style="3"/>
     <col min="26" max="26" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.42578125" style="3" customWidth="1"/>
@@ -541,7 +556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -585,17 +600,35 @@
         <v>9</v>
       </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="4">
+        <v>100</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="4">
+        <v>50</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9ED333-94AA-4AF0-918B-58319DB621AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C44E4D-EC97-4650-BF38-C88EAA3D5706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="2970" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>Student</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>Great looking room! Amazing job!</t>
+  </si>
+  <si>
+    <t>3 CPP</t>
+  </si>
+  <si>
+    <t>See my comments  under the folder Shahar_Comments</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>4 UE</t>
+  </si>
+  <si>
+    <t>5 UE</t>
+  </si>
+  <si>
+    <t>did not create another actor type like Arrow and Target (see items 2 and 3 in class 5 HW)</t>
   </si>
 </sst>
 </file>
@@ -425,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AZ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +474,7 @@
     <col min="21" max="21" width="9.140625" style="3"/>
     <col min="22" max="22" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.28515625" style="3" customWidth="1"/>
     <col min="25" max="25" width="9.140625" style="3"/>
     <col min="26" max="26" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.42578125" style="3" customWidth="1"/>
@@ -464,7 +482,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,8 +555,68 @@
       <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -572,23 +650,65 @@
         <v>9</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4">
+        <v>75</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="4">
+        <v>100</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="4">
+        <v>33</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -617,8 +737,32 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -647,8 +791,32 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -677,8 +845,32 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -707,8 +899,32 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -737,8 +953,32 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -767,8 +1007,32 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -797,8 +1061,32 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -827,8 +1115,32 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -857,8 +1169,32 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -887,8 +1223,32 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -917,6 +1277,30 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66549BEB-57A6-4620-B5F6-20F90FBB901A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A901C7-31AA-4F52-85EB-F926749E7666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="5565" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
   <si>
     <t>Student</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>Nizar Lawen</t>
+  </si>
+  <si>
+    <t>3 CPP</t>
+  </si>
+  <si>
+    <t>Good!, see my comments</t>
+  </si>
+  <si>
+    <t>4 UE</t>
+  </si>
+  <si>
+    <t>5 UE</t>
+  </si>
+  <si>
+    <t>did not create another actor type like Arrow and Target (see items 2 and 3 in class 5 HW)</t>
   </si>
 </sst>
 </file>
@@ -425,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AS18" sqref="AS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +471,7 @@
     <col min="21" max="21" width="9.140625" style="3"/>
     <col min="22" max="22" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5703125" style="3" customWidth="1"/>
     <col min="25" max="25" width="9.140625" style="3"/>
     <col min="26" max="26" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.42578125" style="3" customWidth="1"/>
@@ -464,7 +479,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,8 +552,78 @@
       <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -572,23 +657,69 @@
         <v>8</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4">
+        <v>80</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="4">
+        <v>100</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="4">
+        <v>33</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -617,8 +748,36 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -647,8 +806,36 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -677,8 +864,36 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -707,8 +922,36 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -737,8 +980,36 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -767,8 +1038,36 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -797,8 +1096,36 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -827,8 +1154,36 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -857,6 +1212,34 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF60B6A1-3C18-4A82-941F-A505AFAC7080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374BA345-5740-4474-8003-BA6E112DB365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
     <t>5 UE</t>
   </si>
   <si>
-    <t>You didn’t implement a new action for shooting arrow 2</t>
-  </si>
-  <si>
     <t>6 UE</t>
+  </si>
+  <si>
+    <t>Great job except a small bug: You are binding the function "OnCollision2" when you do not have such a function</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:AB2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,14 +614,14 @@
         <v>13</v>
       </c>
       <c r="W2" s="4">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA2" s="4">
         <v>100</v>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BC8C17-A510-4716-9465-9E2D8E707149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7010BE16-F1DA-4806-A7CA-62F8227F61D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,10 @@
     <t>5 UE</t>
   </si>
   <si>
-    <t>You didn’t implement a new action for shooting arrow 2</t>
-  </si>
-  <si>
     <t>6 UE</t>
+  </si>
+  <si>
+    <t>You forgot to bind to a collision delegate in Arrow2's ctor</t>
   </si>
 </sst>
 </file>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -617,14 +617,14 @@
         <v>14</v>
       </c>
       <c r="W2" s="4">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA2" s="4">
         <v>100</v>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374BA345-5740-4474-8003-BA6E112DB365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF60B6A1-3C18-4A82-941F-A505AFAC7080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
     <t>5 UE</t>
   </si>
   <si>
+    <t>You didn’t implement a new action for shooting arrow 2</t>
+  </si>
+  <si>
     <t>6 UE</t>
-  </si>
-  <si>
-    <t>Great job except a small bug: You are binding the function "OnCollision2" when you do not have such a function</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,14 +614,14 @@
         <v>13</v>
       </c>
       <c r="W2" s="4">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA2" s="4">
         <v>100</v>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEABFC9-F9DF-46E0-A4BD-03588EA97029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0F5C72-1662-4B14-8008-9ED7722902A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="2970" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>Student</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>not submitted</t>
+  </si>
+  <si>
+    <t>Not submitted</t>
+  </si>
+  <si>
+    <t>4 UE</t>
+  </si>
+  <si>
+    <t>5 UE</t>
+  </si>
+  <si>
+    <t>6 UE</t>
+  </si>
+  <si>
+    <t>7 CPP</t>
+  </si>
+  <si>
+    <t>my comments in the code</t>
   </si>
 </sst>
 </file>
@@ -428,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +485,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,12 +558,44 @@
       <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
       <c r="C2" s="4">
         <v>100</v>
       </c>
@@ -579,19 +629,55 @@
         <v>8</v>
       </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -620,8 +706,20 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -650,8 +748,20 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -680,8 +790,20 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -710,8 +832,20 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -740,8 +874,20 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -770,8 +916,20 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -800,8 +958,20 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -830,8 +1000,20 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -860,8 +1042,20 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -890,8 +1084,20 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -920,8 +1126,20 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -950,8 +1168,20 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -980,8 +1210,20 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1010,6 +1252,18 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128FAC6F-8806-49AF-8F67-1A439DDA3F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBB5690-4235-4504-85C9-3C7D524708F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>Student</t>
   </si>
@@ -40,6 +40,33 @@
   </si>
   <si>
     <t>Amit Vaknin</t>
+  </si>
+  <si>
+    <t>not submitted</t>
+  </si>
+  <si>
+    <t>2 CPP</t>
+  </si>
+  <si>
+    <t>2 UE</t>
+  </si>
+  <si>
+    <t>3 CPP</t>
+  </si>
+  <si>
+    <t>4 UE</t>
+  </si>
+  <si>
+    <t>Not submitted</t>
+  </si>
+  <si>
+    <t>5 UE</t>
+  </si>
+  <si>
+    <t>6 UE</t>
+  </si>
+  <si>
+    <t>7 CPP</t>
   </si>
 </sst>
 </file>
@@ -410,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="B2" sqref="B2:AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +476,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,39 +550,89 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -585,7 +662,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -615,7 +692,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -645,7 +722,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -675,7 +752,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -705,7 +782,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -735,7 +812,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -765,7 +842,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -795,7 +872,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -825,7 +902,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -855,7 +932,7 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -885,7 +962,7 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -915,7 +992,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B27A3C8-29B1-432C-BCC7-984CB032C7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEBDAB7-B18C-4492-876D-F375DB372C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="5565" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Student</t>
   </si>
@@ -54,7 +54,28 @@
     <t>Ron Bandel</t>
   </si>
   <si>
-    <t>no submission yet</t>
+    <t>not submitted</t>
+  </si>
+  <si>
+    <t>3 CPP</t>
+  </si>
+  <si>
+    <t>4 UE</t>
+  </si>
+  <si>
+    <t>Not submitted</t>
+  </si>
+  <si>
+    <t>5 UE</t>
+  </si>
+  <si>
+    <t>6 UE</t>
+  </si>
+  <si>
+    <t>7 CPP</t>
+  </si>
+  <si>
+    <t>See my comments in the code</t>
   </si>
 </sst>
 </file>
@@ -425,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A2" sqref="A2:AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +485,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -565,28 +586,63 @@
       <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
       <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -616,7 +672,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -646,7 +702,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -676,7 +732,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -706,7 +762,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -736,7 +792,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E8C6C5-B5CE-4356-8112-C6FE571DC45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE47931-8C13-44CB-BD35-6A0CDEF8159B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="5565" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>Student</t>
   </si>
@@ -55,6 +55,33 @@
   </si>
   <si>
     <t>Robert Dibi</t>
+  </si>
+  <si>
+    <t>3 CPP</t>
+  </si>
+  <si>
+    <t>Good!, see my comments</t>
+  </si>
+  <si>
+    <t>4 UE</t>
+  </si>
+  <si>
+    <t>5 UE</t>
+  </si>
+  <si>
+    <t>did not create another actor type like Arrow and Target (see items 2 and 3 in class 5 HW)</t>
+  </si>
+  <si>
+    <t>6 UE</t>
+  </si>
+  <si>
+    <t>Not submitted</t>
+  </si>
+  <si>
+    <t>7 CPP</t>
+  </si>
+  <si>
+    <t>See my comments in the code</t>
   </si>
 </sst>
 </file>
@@ -425,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3:AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +491,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,8 +564,18 @@
       <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -572,23 +609,57 @@
         <v>8</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4">
+        <v>90</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="4">
+        <v>100</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="4">
+        <v>33</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>60</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -617,8 +688,12 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -647,8 +722,12 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -677,8 +756,12 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -707,8 +790,12 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -737,8 +824,12 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -767,8 +858,12 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -797,6 +892,10 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEC856C-0CFC-40DD-A655-7583F7F14597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602B7506-5C06-4422-B00D-B7AEBD33D8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="2970" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>Student</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>did not create room with windows</t>
+  </si>
+  <si>
+    <t>4 UE</t>
+  </si>
+  <si>
+    <t>Not submitted</t>
+  </si>
+  <si>
+    <t>5 UE</t>
+  </si>
+  <si>
+    <t>6 UE</t>
+  </si>
+  <si>
+    <t>7 CPP</t>
+  </si>
+  <si>
+    <t>Very good!</t>
   </si>
 </sst>
 </file>
@@ -431,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +488,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +561,18 @@
       <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -588,19 +616,47 @@
         <v>8</v>
       </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>92</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -629,8 +685,12 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -659,8 +719,12 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -689,8 +753,12 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -719,8 +787,12 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -749,8 +821,12 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -779,8 +855,12 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -809,8 +889,12 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -839,8 +923,12 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -869,8 +957,12 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -899,8 +991,12 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -929,8 +1025,12 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -959,6 +1059,10 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897B4FC1-7103-40BE-A8CE-EFA67C419B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF24DB64-A260-4446-BD95-F647606397A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="5565" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Student</t>
   </si>
@@ -40,6 +40,39 @@
   </si>
   <si>
     <t>Shay Yosef</t>
+  </si>
+  <si>
+    <t>2CPP</t>
+  </si>
+  <si>
+    <t>Good Work!</t>
+  </si>
+  <si>
+    <t>2 UE</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>3 CPP</t>
+  </si>
+  <si>
+    <t>See my comments</t>
+  </si>
+  <si>
+    <t>4 UE</t>
+  </si>
+  <si>
+    <t>Not submitted</t>
+  </si>
+  <si>
+    <t>5 UE</t>
+  </si>
+  <si>
+    <t>6 UE</t>
+  </si>
+  <si>
+    <t>7 CPP</t>
   </si>
 </sst>
 </file>
@@ -410,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A2:XFD16"/>
+      <selection activeCell="B2" sqref="B2:AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +482,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,39 +556,85 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="7"/>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>100</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4">
+        <v>100</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4">
+        <v>58</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -585,7 +664,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -615,7 +694,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -645,7 +724,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C44E4D-EC97-4650-BF38-C88EAA3D5706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C89EA3A-F5A4-4BB2-9AFA-99B3E4DE2B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>Student</t>
   </si>
@@ -60,9 +71,6 @@
     <t>3 CPP</t>
   </si>
   <si>
-    <t>See my comments  under the folder Shahar_Comments</t>
-  </si>
-  <si>
     <t>Excellent!</t>
   </si>
   <si>
@@ -72,7 +80,28 @@
     <t>5 UE</t>
   </si>
   <si>
-    <t>did not create another actor type like Arrow and Target (see items 2 and 3 in class 5 HW)</t>
+    <t>Saw the fix - excellent!</t>
+  </si>
+  <si>
+    <t>6 UE</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>7 CPP</t>
+  </si>
+  <si>
+    <t>see my comments</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>Excellent! (remember that 10 needs to be duplicated and not on the same solution)</t>
   </si>
 </sst>
 </file>
@@ -445,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +508,9 @@
     <col min="26" max="26" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.42578125" style="3" customWidth="1"/>
     <col min="28" max="28" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="3"/>
+    <col min="29" max="39" width="9.140625" style="3"/>
+    <col min="40" max="40" width="20" style="3" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="30" x14ac:dyDescent="0.25">
@@ -616,7 +647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -654,47 +685,71 @@
         <v>10</v>
       </c>
       <c r="O2" s="4">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S2" s="4">
         <v>100</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="4">
+        <v>100</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="4">
-        <v>33</v>
-      </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
+      <c r="AA2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AC2" s="5"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
+      <c r="AD2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>75</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
+      <c r="AH2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>99</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="AK2" s="5"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
+      <c r="AL2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="AO2" s="5"/>
       <c r="AP2" s="4"/>
       <c r="AQ2" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A901C7-31AA-4F52-85EB-F926749E7666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F9D87-523D-4472-81F2-E274A88B95E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>Student</t>
   </si>
@@ -70,6 +81,39 @@
   </si>
   <si>
     <t>did not create another actor type like Arrow and Target (see items 2 and 3 in class 5 HW)</t>
+  </si>
+  <si>
+    <t>6 UE</t>
+  </si>
+  <si>
+    <t>Not submitted</t>
+  </si>
+  <si>
+    <t>7 CPP</t>
+  </si>
+  <si>
+    <t>see my comments</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>you need to submit this separatly</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>Very good!</t>
   </si>
 </sst>
 </file>
@@ -442,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AS18" sqref="AS18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2:AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -687,29 +731,65 @@
         <v>14</v>
       </c>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AC2" s="5"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
+      <c r="AD2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>65</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
+      <c r="AH2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>95</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="AK2" s="5"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
+      <c r="AL2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>85</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="AO2" s="5"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
+      <c r="AP2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="AS2" s="5"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
+      <c r="AT2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="AW2" s="5"/>
       <c r="AX2" s="4"/>
       <c r="AY2" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371279CF-1A6A-44F7-85D8-1374D5B1DFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD1DB30-1781-4C55-8258-D510D64B8B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Student</t>
   </si>
@@ -73,6 +84,30 @@
   </si>
   <si>
     <t>I Saw the fix</t>
+  </si>
+  <si>
+    <t>7 CPP</t>
+  </si>
+  <si>
+    <t>comments in the code</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
   </si>
 </sst>
 </file>
@@ -443,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN18"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +518,7 @@
     <col min="41" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -661,19 +696,61 @@
         <v>12</v>
       </c>
       <c r="AC2" s="5"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
+      <c r="AD2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>88</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
+      <c r="AH2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AK2" s="5"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AL2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>100</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>100</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -715,7 +792,7 @@
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -757,7 +834,7 @@
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -799,7 +876,7 @@
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -841,7 +918,7 @@
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -883,7 +960,7 @@
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -925,7 +1002,7 @@
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -967,7 +1044,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1009,7 +1086,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1051,7 +1128,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1093,7 +1170,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1135,7 +1212,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1177,7 +1254,7 @@
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1219,7 +1296,7 @@
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7010BE16-F1DA-4806-A7CA-62F8227F61D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D63898-98C7-4CF9-8CAC-017010EBD3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>Student</t>
   </si>
@@ -76,6 +76,33 @@
   </si>
   <si>
     <t>You forgot to bind to a collision delegate in Arrow2's ctor</t>
+  </si>
+  <si>
+    <t>7 CPP</t>
+  </si>
+  <si>
+    <t>comments in the code</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>you need to submit this separately</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>very good, see my example in class 11 about the virtual Clone() method</t>
   </si>
 </sst>
 </file>
@@ -446,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AV17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:X2"/>
+      <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +512,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +585,58 @@
       <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+      <c r="AC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV1" s="2"/>
+    </row>
+    <row r="2" spans="1:48" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -632,8 +709,58 @@
       <c r="AB2" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>85</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>95</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV2" s="5"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -663,7 +790,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -693,7 +820,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -723,7 +850,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -753,7 +880,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -783,7 +910,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -813,7 +940,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -843,7 +970,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -873,7 +1000,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -903,7 +1030,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -933,7 +1060,7 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -963,7 +1090,7 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -993,7 +1120,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1023,7 +1150,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C89EA3A-F5A4-4BB2-9AFA-99B3E4DE2B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD756CC-0B5F-4036-8268-6B57CF7D1BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>Student</t>
   </si>
@@ -92,9 +92,6 @@
     <t>7 CPP</t>
   </si>
   <si>
-    <t>see my comments</t>
-  </si>
-  <si>
     <t>8 CPP</t>
   </si>
   <si>
@@ -102,6 +99,15 @@
   </si>
   <si>
     <t>Excellent! (remember that 10 needs to be duplicated and not on the same solution)</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>Very good!</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
   </si>
 </sst>
 </file>
@@ -475,7 +481,7 @@
   <dimension ref="A1:AZ13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+      <selection activeCell="AD2" sqref="AD2:AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -725,14 +731,14 @@
         <v>17</v>
       </c>
       <c r="AE2" s="4">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI2" s="4">
         <v>99</v>
@@ -742,22 +748,34 @@
       </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM2" s="4">
         <v>100</v>
       </c>
       <c r="AN2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
+      <c r="AQ2" s="4">
+        <v>95</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="AS2" s="5"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
+      <c r="AT2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="AW2" s="5"/>
       <c r="AX2" s="4"/>
       <c r="AY2" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD756CC-0B5F-4036-8268-6B57CF7D1BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD0477B-D0F6-4814-B017-FBE0F57EE679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>Student</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>11 CPP</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
+  </si>
+  <si>
+    <t>Not submitted</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
   <dimension ref="A1:AZ13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AV2"/>
+      <selection activeCell="AX2" sqref="AX2:AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,9 +783,15 @@
         <v>11</v>
       </c>
       <c r="AW2" s="5"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
+      <c r="AX2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF60B6A1-3C18-4A82-941F-A505AFAC7080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A842027-5AC8-41B7-B460-F870D0AF8EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>Student</t>
   </si>
@@ -73,6 +73,36 @@
   </si>
   <si>
     <t>6 UE</t>
+  </si>
+  <si>
+    <t>7 CPP</t>
+  </si>
+  <si>
+    <t>Good!, Please read my comments</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>Excellent! (watch out for those memory leaks)</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>Very good!</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>See my Comments</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
   </si>
 </sst>
 </file>
@@ -443,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:AB2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +512,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,8 +585,68 @@
       <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -629,8 +719,68 @@
       <c r="AB2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>85</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>91</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>71</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -659,8 +809,32 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -689,8 +863,32 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -719,8 +917,32 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -749,8 +971,32 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -779,8 +1025,32 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -809,8 +1079,32 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -839,8 +1133,32 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -869,8 +1187,32 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -899,8 +1241,32 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -929,6 +1295,30 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D63898-98C7-4CF9-8CAC-017010EBD3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAAB10D-783B-4C1C-8CDC-2D8485C71637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>Student</t>
   </si>
@@ -96,13 +96,19 @@
     <t>10 CPP</t>
   </si>
   <si>
-    <t>you need to submit this separately</t>
-  </si>
-  <si>
     <t>11 CPP</t>
   </si>
   <si>
     <t>very good, see my example in class 11 about the virtual Clone() method</t>
+  </si>
+  <si>
+    <t>Very good!</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
+  </si>
+  <si>
+    <t>missing item 2 of first question</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV17"/>
+  <dimension ref="A1:AZ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AW2" sqref="AW2:AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +518,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,8 +641,18 @@
         <v>2</v>
       </c>
       <c r="AV1" s="2"/>
-    </row>
-    <row r="2" spans="1:48" ht="150" x14ac:dyDescent="0.25">
+      <c r="AW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ1" s="2"/>
+    </row>
+    <row r="2" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -743,24 +759,34 @@
         <v>22</v>
       </c>
       <c r="AP2" s="4">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AQ2" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR2" s="5"/>
       <c r="AS2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT2" s="4">
         <v>95</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV2" s="5"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX2" s="4">
+        <v>80</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ2" s="5"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -790,7 +816,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -820,7 +846,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -850,7 +876,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -880,7 +906,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -910,7 +936,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -940,7 +966,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -970,7 +996,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1000,7 +1026,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1030,7 +1056,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1060,7 +1086,7 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1090,7 +1116,7 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1120,7 +1146,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1150,7 +1176,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A842027-5AC8-41B7-B460-F870D0AF8EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C6498B-3CCB-4E91-8587-6BAFD865CF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t>Student</t>
   </si>
@@ -67,9 +78,6 @@
   </si>
   <si>
     <t>5 UE</t>
-  </si>
-  <si>
-    <t>You didn’t implement a new action for shooting arrow 2</t>
   </si>
   <si>
     <t>6 UE</t>
@@ -475,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AZ2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,14 +712,14 @@
         <v>13</v>
       </c>
       <c r="W2" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA2" s="4">
         <v>100</v>
@@ -721,17 +729,17 @@
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE2" s="4">
         <v>85</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI2" s="4">
         <v>100</v>
@@ -741,37 +749,37 @@
       </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM2" s="4">
         <v>99</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO2" s="5"/>
       <c r="AP2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ2" s="4">
         <v>91</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS2" s="5"/>
       <c r="AT2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU2" s="4">
         <v>71</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW2" s="5"/>
       <c r="AX2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY2" s="4">
         <v>100</v>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD0477B-D0F6-4814-B017-FBE0F57EE679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44577E08-1059-45E2-91EB-FFE1D899C83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>Student</t>
   </si>
@@ -104,16 +104,10 @@
     <t>10 CPP</t>
   </si>
   <si>
-    <t>Very good!</t>
-  </si>
-  <si>
     <t>11 CPP</t>
   </si>
   <si>
     <t>12 CPP</t>
-  </si>
-  <si>
-    <t>Not submitted</t>
   </si>
 </sst>
 </file>
@@ -486,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2:AZ2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2:AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,14 +761,14 @@
         <v>21</v>
       </c>
       <c r="AQ2" s="4">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AS2" s="5"/>
       <c r="AT2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU2" s="4">
         <v>100</v>
@@ -784,13 +778,13 @@
       </c>
       <c r="AW2" s="5"/>
       <c r="AX2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY2" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F9D87-523D-4472-81F2-E274A88B95E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69758844-2B51-4A62-A357-E3FE1E0F0458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <t>Student</t>
   </si>
@@ -86,9 +86,6 @@
     <t>6 UE</t>
   </si>
   <si>
-    <t>Not submitted</t>
-  </si>
-  <si>
     <t>7 CPP</t>
   </si>
   <si>
@@ -114,6 +111,12 @@
   </si>
   <si>
     <t>Very good!</t>
+  </si>
+  <si>
+    <t>No second target type</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
   </si>
 </sst>
 </file>
@@ -486,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2:AV2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2:AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,65 +738,71 @@
         <v>15</v>
       </c>
       <c r="AA2" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE2" s="4">
         <v>65</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI2" s="4">
         <v>95</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM2" s="4">
         <v>85</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO2" s="5"/>
       <c r="AP2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ2" s="4">
         <v>0</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS2" s="5"/>
       <c r="AT2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU2" s="4">
         <v>100</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW2" s="5"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
+      <c r="AX2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="BA2" s="5"/>
       <c r="BB2" s="4"/>
       <c r="BC2" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE47931-8C13-44CB-BD35-6A0CDEF8159B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF32FF90-B95E-41B9-AC0A-9E1D7608FD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>Student</t>
   </si>
@@ -82,6 +82,33 @@
   </si>
   <si>
     <t>See my comments in the code</t>
+  </si>
+  <si>
+    <t>No second target type</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>see my comments</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>you need to submit this separately</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>Good!</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
   </si>
 </sst>
 </file>
@@ -452,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:BE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AF9"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2:AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +518,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,8 +601,69 @@
       <c r="AF1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -643,10 +731,10 @@
         <v>15</v>
       </c>
       <c r="AA2" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="4" t="s">
@@ -658,8 +746,63 @@
       <c r="AF2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>60</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>80</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="5"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -692,8 +835,33 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="5"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -726,8 +894,33 @@
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="5"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -760,8 +953,33 @@
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -794,8 +1012,33 @@
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="5"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -828,8 +1071,33 @@
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -862,8 +1130,33 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -896,6 +1189,31 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809EB6B2-DF48-483F-B036-0AE9C7D0C840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E212EA-042D-4590-9738-5DAA200ECA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
   <si>
     <t>Student</t>
   </si>
@@ -40,6 +40,45 @@
   </si>
   <si>
     <t>On Tamam</t>
+  </si>
+  <si>
+    <t>not submitted</t>
+  </si>
+  <si>
+    <t>2CPP</t>
+  </si>
+  <si>
+    <t>2 UE</t>
+  </si>
+  <si>
+    <t>3 CPP</t>
+  </si>
+  <si>
+    <t>4 UE</t>
+  </si>
+  <si>
+    <t>5 UE</t>
+  </si>
+  <si>
+    <t>6 UE</t>
+  </si>
+  <si>
+    <t>7 CPP</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
   </si>
 </sst>
 </file>
@@ -63,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,6 +112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -104,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -128,6 +173,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -410,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AY6" sqref="AY6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +500,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,40 +573,204 @@
       <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="9">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="9">
+        <v>0</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA2" s="9"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -585,7 +800,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -615,7 +830,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -645,7 +860,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -675,7 +890,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -705,7 +920,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -735,7 +950,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -765,7 +980,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411586BA-E50F-43B4-8811-D06673FC3660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AF51F2-5DF1-4DEF-96E9-7346DF8E7F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="3315" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>Student</t>
   </si>
@@ -40,6 +51,54 @@
   </si>
   <si>
     <t>Grade</t>
+  </si>
+  <si>
+    <t>See my comments</t>
+  </si>
+  <si>
+    <t>2 CPP</t>
+  </si>
+  <si>
+    <t>Good Work!</t>
+  </si>
+  <si>
+    <t>2 UE</t>
+  </si>
+  <si>
+    <t>not submitted</t>
+  </si>
+  <si>
+    <t>3 CPP</t>
+  </si>
+  <si>
+    <t>4 UE</t>
+  </si>
+  <si>
+    <t>5 UE</t>
+  </si>
+  <si>
+    <t>6 UE</t>
+  </si>
+  <si>
+    <t>7 CPP</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
   </si>
 </sst>
 </file>
@@ -410,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AZ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AW2" sqref="AW2:AW19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +508,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,42 +581,202 @@
       <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="4">
+        <v>65</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="7"/>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>100</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4">
+        <v>90</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>95</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -586,8 +805,32 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -616,8 +859,32 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -646,8 +913,32 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -676,8 +967,32 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -706,8 +1021,32 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -736,8 +1075,32 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -766,8 +1129,32 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -796,8 +1183,32 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -826,8 +1237,32 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -856,8 +1291,32 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -886,8 +1345,32 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -916,8 +1399,32 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -946,8 +1453,32 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -976,8 +1507,32 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1006,8 +1561,32 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1036,8 +1615,32 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1066,6 +1669,30 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBB5690-4235-4504-85C9-3C7D524708F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EE6DF9-FA6B-48F0-B25B-630CD85E142C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t>Student</t>
   </si>
@@ -67,6 +78,21 @@
   </si>
   <si>
     <t>7 CPP</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
   </si>
 </sst>
 </file>
@@ -437,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AZ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AF2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +502,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +575,68 @@
       <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -570,7 +656,9 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="4" t="s">
         <v>7</v>
@@ -631,8 +719,58 @@
       <c r="AF2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -662,7 +800,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -692,7 +830,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -722,7 +860,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -752,7 +890,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -782,7 +920,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -812,7 +950,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -842,7 +980,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -872,7 +1010,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -902,7 +1040,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -932,7 +1070,7 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -962,7 +1100,7 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -992,7 +1130,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D5BC70-71FF-48AE-B2E0-F38B6EE5D4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A0BA7F-EEB3-4BB6-80D9-738BD0154C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
   <si>
     <t>Student</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Lior Avital</t>
   </si>
   <si>
-    <t>2 CPP</t>
-  </si>
-  <si>
     <t>2 UE</t>
   </si>
   <si>
@@ -64,6 +61,30 @@
   </si>
   <si>
     <t>7 CPP</t>
+  </si>
+  <si>
+    <t>2CPP</t>
+  </si>
+  <si>
+    <t>Good Work!</t>
+  </si>
+  <si>
+    <t>not submitted</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
   </si>
 </sst>
 </file>
@@ -434,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN21"/>
+  <dimension ref="A1:AZ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +494,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -592,70 +613,123 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="N2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" s="4">
         <v>0</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S2" s="4">
         <v>0</v>
       </c>
-      <c r="T2" s="4"/>
+      <c r="T2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="U2" s="5"/>
       <c r="V2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W2" s="4">
         <v>0</v>
       </c>
-      <c r="X2" s="4"/>
+      <c r="X2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA2" s="4">
         <v>0</v>
       </c>
-      <c r="AB2" s="4"/>
+      <c r="AB2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE2" s="4">
         <v>0</v>
       </c>
-      <c r="AF2" s="4"/>
+      <c r="AF2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
+      <c r="AH2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="AK2" s="5"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AL2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -697,7 +771,7 @@
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -739,7 +813,7 @@
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -781,7 +855,7 @@
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -823,7 +897,7 @@
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -865,7 +939,7 @@
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -907,7 +981,7 @@
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -949,7 +1023,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -991,7 +1065,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1033,7 +1107,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1075,7 +1149,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1117,7 +1191,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1159,7 +1233,7 @@
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1201,7 +1275,7 @@
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CDB974-4A42-45A0-B602-1DFA57330901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8FFECA-A8C4-44C7-B087-465ECD725B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t>Student</t>
   </si>
@@ -80,6 +80,33 @@
   </si>
   <si>
     <t>6 UE</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>Good! (you answered very well but you didn’t add 3 concrete types deriving from weapon)</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>You cannot submit 9 and 10 together, they need to be separated - please submit again</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>You didn’t do any of the instructions for HW11</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
   </si>
 </sst>
 </file>
@@ -450,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW19"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1:BA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +519,7 @@
     <col min="37" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,8 +643,27 @@
         <v>2</v>
       </c>
       <c r="AW1" s="2"/>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -711,20 +757,57 @@
         <v>11</v>
       </c>
       <c r="AK2" s="5"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
+      <c r="AL2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AO2" s="5"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
+      <c r="AP2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>75</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="AS2" s="5"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
+      <c r="AT2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="AW2" s="5"/>
+      <c r="AX2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -774,8 +857,15 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
       <c r="AW3" s="5"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -825,8 +915,15 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
       <c r="AW4" s="5"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -876,8 +973,15 @@
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
       <c r="AW5" s="5"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -927,8 +1031,15 @@
       <c r="AU6" s="4"/>
       <c r="AV6" s="4"/>
       <c r="AW6" s="5"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -978,8 +1089,15 @@
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
       <c r="AW7" s="5"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1029,8 +1147,15 @@
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
       <c r="AW8" s="5"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1080,8 +1205,15 @@
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
       <c r="AW9" s="5"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1131,8 +1263,15 @@
       <c r="AU10" s="4"/>
       <c r="AV10" s="4"/>
       <c r="AW10" s="5"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1182,8 +1321,15 @@
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="5"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1233,8 +1379,15 @@
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="5"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1284,8 +1437,15 @@
       <c r="AU13" s="4"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="5"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1335,8 +1495,15 @@
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
       <c r="AW14" s="5"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1386,8 +1553,15 @@
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="5"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1437,8 +1611,15 @@
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="5"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1488,8 +1669,15 @@
       <c r="AU17" s="4"/>
       <c r="AV17" s="4"/>
       <c r="AW17" s="5"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1539,8 +1727,15 @@
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="5"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1590,6 +1785,13 @@
       <c r="AU19" s="4"/>
       <c r="AV19" s="4"/>
       <c r="AW19" s="5"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69758844-2B51-4A62-A357-E3FE1E0F0458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A277E3B3-901D-4F39-9835-2C164DF0B7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>Student</t>
   </si>
@@ -80,9 +80,6 @@
     <t>5 UE</t>
   </si>
   <si>
-    <t>did not create another actor type like Arrow and Target (see items 2 and 3 in class 5 HW)</t>
-  </si>
-  <si>
     <t>6 UE</t>
   </si>
   <si>
@@ -104,19 +101,19 @@
     <t>10 CPP</t>
   </si>
   <si>
-    <t>you need to submit this separatly</t>
-  </si>
-  <si>
     <t>11 CPP</t>
   </si>
   <si>
     <t>Very good!</t>
   </si>
   <si>
-    <t>No second target type</t>
-  </si>
-  <si>
     <t>12 CPP</t>
+  </si>
+  <si>
+    <t>Saw the fix - excellent!</t>
+  </si>
+  <si>
+    <t>your code didn’t compile - I wrote the mistakes in the comments folder</t>
   </si>
 </sst>
 </file>
@@ -489,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2:AZ2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2:AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -728,74 +725,74 @@
         <v>13</v>
       </c>
       <c r="W2" s="4">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA2" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE2" s="4">
         <v>65</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI2" s="4">
         <v>95</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM2" s="4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AO2" s="5"/>
       <c r="AP2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ2" s="4">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AS2" s="5"/>
       <c r="AT2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU2" s="4">
         <v>100</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW2" s="5"/>
       <c r="AX2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY2" s="4">
         <v>100</v>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8FFECA-A8C4-44C7-B087-465ECD725B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF77984F-926D-4F55-B574-87B1CD4E034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>Student</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Not submitted</t>
   </si>
   <si>
-    <t>3 UE</t>
-  </si>
-  <si>
     <t>4 UE</t>
   </si>
   <si>
@@ -91,15 +88,9 @@
     <t>9 CPP</t>
   </si>
   <si>
-    <t>Good! (you answered very well but you didn’t add 3 concrete types deriving from weapon)</t>
-  </si>
-  <si>
     <t>10 CPP</t>
   </si>
   <si>
-    <t>You cannot submit 9 and 10 together, they need to be separated - please submit again</t>
-  </si>
-  <si>
     <t>11 CPP</t>
   </si>
   <si>
@@ -107,6 +98,18 @@
   </si>
   <si>
     <t>12 CPP</t>
+  </si>
+  <si>
+    <t>Saw the fix - excellent!</t>
+  </si>
+  <si>
+    <t>not submitted</t>
+  </si>
+  <si>
+    <t>Saw the fix</t>
+  </si>
+  <si>
+    <t>Saw the fix, see my comments</t>
   </si>
 </sst>
 </file>
@@ -479,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1:BA19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -701,10 +704,10 @@
         <v>12</v>
       </c>
       <c r="O2" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="4" t="s">
@@ -714,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="4" t="s">
@@ -724,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="4" t="s">
@@ -734,71 +737,71 @@
         <v>0</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE2" s="4">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AI2" s="4">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM2" s="4">
         <v>100</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AO2" s="5"/>
       <c r="AP2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AQ2" s="4">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AS2" s="5"/>
       <c r="AT2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>92</v>
+      </c>
+      <c r="AV2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="AU2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="AW2" s="5"/>
       <c r="AX2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY2" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="BA2" s="2"/>
       <c r="BB2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BC2" s="4">
         <v>0</v>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF77984F-926D-4F55-B574-87B1CD4E034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B2D233-B34D-4E83-9088-9CB2078328AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>Student</t>
   </si>
@@ -67,9 +67,6 @@
     <t>3 CPP</t>
   </si>
   <si>
-    <t>Not submitted</t>
-  </si>
-  <si>
     <t>4 UE</t>
   </si>
   <si>
@@ -110,13 +107,19 @@
   </si>
   <si>
     <t>Saw the fix, see my comments</t>
+  </si>
+  <si>
+    <t>Final Project</t>
+  </si>
+  <si>
+    <t>Well done!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +135,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +152,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -199,6 +214,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:BA2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="BC5" sqref="BC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,37 +725,37 @@
         <v>100</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S2" s="4">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W2" s="4">
         <v>0</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA2" s="4">
         <v>0</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="4" t="s">
@@ -751,63 +769,63 @@
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI2" s="4">
         <v>100</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM2" s="4">
         <v>100</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO2" s="5"/>
       <c r="AP2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ2" s="4">
         <v>90</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS2" s="5"/>
       <c r="AT2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU2" s="4">
         <v>92</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW2" s="5"/>
       <c r="AX2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY2" s="4">
         <v>100</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA2" s="2"/>
-      <c r="BB2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC2" s="4">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>13</v>
+      <c r="BB2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC2" s="9">
+        <v>100</v>
+      </c>
+      <c r="BD2" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
@@ -1797,6 +1815,7 @@
       <c r="BD19" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A277E3B3-901D-4F39-9835-2C164DF0B7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB388460-7DE1-4B45-BA54-75FA2CC2FA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>Student</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>3 CPP</t>
-  </si>
-  <si>
-    <t>Good!, see my comments</t>
   </si>
   <si>
     <t>4 UE</t>
@@ -487,7 +484,7 @@
   <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AR2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,14 +702,14 @@
         <v>10</v>
       </c>
       <c r="O2" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S2" s="4">
         <v>100</v>
@@ -722,77 +719,77 @@
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W2" s="4">
         <v>100</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA2" s="4">
         <v>100</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE2" s="4">
         <v>65</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI2" s="4">
         <v>95</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM2" s="4">
         <v>88</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO2" s="5"/>
       <c r="AP2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ2" s="4">
         <v>73</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS2" s="5"/>
       <c r="AT2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU2" s="4">
         <v>100</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW2" s="5"/>
       <c r="AX2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY2" s="4">
         <v>100</v>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB388460-7DE1-4B45-BA54-75FA2CC2FA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CA764F-C15F-4FDD-9697-3A3DD3953400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t>Student</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>7 CPP</t>
-  </si>
-  <si>
-    <t>see my comments</t>
   </si>
   <si>
     <t>8 CPP</t>
@@ -484,7 +481,7 @@
   <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +702,7 @@
         <v>100</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="4" t="s">
@@ -725,7 +722,7 @@
         <v>100</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="4" t="s">
@@ -735,61 +732,61 @@
         <v>100</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AE2" s="4">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI2" s="4">
         <v>95</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM2" s="4">
         <v>88</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO2" s="5"/>
       <c r="AP2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ2" s="4">
         <v>73</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS2" s="5"/>
       <c r="AT2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU2" s="4">
         <v>100</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW2" s="5"/>
       <c r="AX2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY2" s="4">
         <v>100</v>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEBDAB7-B18C-4492-876D-F375DB372C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134BD17-994F-4073-AF3D-29C01DE98BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t>Student</t>
   </si>
@@ -76,6 +76,36 @@
   </si>
   <si>
     <t>See my comments in the code</t>
+  </si>
+  <si>
+    <t>Very Good!</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
+  </si>
+  <si>
+    <t>Final Project</t>
+  </si>
+  <si>
+    <t>Didn't make at least 20 dialogs, and 2 conditional…</t>
   </si>
 </sst>
 </file>
@@ -446,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AF2"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +515,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +588,78 @@
       <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -597,10 +697,10 @@
         <v>10</v>
       </c>
       <c r="O2" s="4">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="4" t="s">
@@ -632,17 +732,78 @@
       <c r="AB2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AE2" s="4">
         <v>73</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>95</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>90</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>80</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -671,8 +832,36 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -701,8 +890,36 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -731,8 +948,36 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -761,8 +1006,36 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -791,8 +1064,36 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -821,6 +1122,34 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B2D233-B34D-4E83-9088-9CB2078328AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37E31B2-062C-4162-953B-054502B35612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="BC5" sqref="BC5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +722,7 @@
         <v>12</v>
       </c>
       <c r="O2" s="4">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>23</v>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF32FF90-B95E-41B9-AC0A-9E1D7608FD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54EE684-FBE4-48DA-8840-0A6C15E30998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>6 UE</t>
   </si>
   <si>
-    <t>Not submitted</t>
-  </si>
-  <si>
     <t>7 CPP</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>10 CPP</t>
   </si>
   <si>
-    <t>you need to submit this separately</t>
-  </si>
-  <si>
     <t>11 CPP</t>
   </si>
   <si>
@@ -109,6 +103,12 @@
   </si>
   <si>
     <t>12 CPP</t>
+  </si>
+  <si>
+    <t>Saw the fix, Excellent!</t>
+  </si>
+  <si>
+    <t>Very good!</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2:AZ2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AT12" sqref="AT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,67 +734,67 @@
         <v>50</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE2" s="4">
         <v>60</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI2" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM2" s="4">
         <v>60</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO2" s="5"/>
       <c r="AP2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ2" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AS2" s="5"/>
       <c r="AT2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU2" s="4">
         <v>80</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW2" s="5"/>
       <c r="AX2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>90</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="AY2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="BA2" s="5"/>
       <c r="BB2" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_CPP_Course_2023_A\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD1DB30-1781-4C55-8258-D510D64B8B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507BA74E-3C96-4518-991C-92D837502D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
   <si>
     <t>Student</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>12 CPP</t>
+  </si>
+  <si>
+    <t>Final Project</t>
+  </si>
+  <si>
+    <t>Very Good!</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AZ2"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2:BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +524,7 @@
     <col min="41" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +627,48 @@
       <c r="AN1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -725,32 +771,46 @@
       <c r="AN2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AQ2" s="3">
+      <c r="AQ2" s="4">
         <v>100</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AR2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="3">
+      <c r="AU2" s="4">
         <v>100</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AV2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="3">
+      <c r="AY2" s="4">
         <v>80</v>
       </c>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>90</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -791,8 +851,24 @@
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -833,8 +909,24 @@
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -875,8 +967,24 @@
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -917,8 +1025,24 @@
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -959,8 +1083,24 @@
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1001,8 +1141,24 @@
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1043,8 +1199,24 @@
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1085,8 +1257,24 @@
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1127,8 +1315,24 @@
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1169,8 +1373,24 @@
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1211,8 +1431,24 @@
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1253,8 +1489,24 @@
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1295,8 +1547,24 @@
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1337,8 +1605,24 @@
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1379,8 +1663,24 @@
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1421,6 +1721,22 @@
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
       <c r="AN18" s="4"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_CPP_Course_2023_A\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134BD17-994F-4073-AF3D-29C01DE98BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DF4ECE-EC6D-416C-B4E7-720FABA1FDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>Student</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Final Project</t>
-  </si>
-  <si>
-    <t>Didn't make at least 20 dialogs, and 2 conditional…</t>
   </si>
 </sst>
 </file>
@@ -479,7 +476,7 @@
   <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AT14" sqref="AT14"/>
+      <selection activeCell="BC2" sqref="BC2:BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -797,10 +794,10 @@
         <v>25</v>
       </c>
       <c r="BC2" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BD2" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_CPP_Course_2023_A\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C6498B-3CCB-4E91-8587-6BAFD865CF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5EA6ED-C7A9-497B-872A-6C146376A8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>Student</t>
   </si>
@@ -111,13 +111,16 @@
   </si>
   <si>
     <t>12 CPP</t>
+  </si>
+  <si>
+    <t>Final Project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +132,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -481,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ12"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2:BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +529,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,8 +662,18 @@
       <c r="AZ1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -787,8 +806,18 @@
       <c r="AZ2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>100</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -841,8 +870,12 @@
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -895,8 +928,12 @@
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
       <c r="AZ4" s="4"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -949,8 +986,12 @@
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1003,8 +1044,12 @@
       <c r="AX6" s="4"/>
       <c r="AY6" s="4"/>
       <c r="AZ6" s="4"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1057,8 +1102,12 @@
       <c r="AX7" s="4"/>
       <c r="AY7" s="4"/>
       <c r="AZ7" s="4"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1111,8 +1160,12 @@
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
       <c r="AZ8" s="4"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1165,8 +1218,12 @@
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
       <c r="AZ9" s="4"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1219,8 +1276,12 @@
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
       <c r="AZ10" s="4"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1273,8 +1334,12 @@
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
       <c r="AZ11" s="4"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1327,8 +1392,13 @@
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_CPP_Course_2023_A\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CA764F-C15F-4FDD-9697-3A3DD3953400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C859F48D-E288-4D36-A652-16498D424CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
   <si>
     <t>Student</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>your code didn’t compile - I wrote the mistakes in the comments folder</t>
+  </si>
+  <si>
+    <t>Final Project</t>
   </si>
 </sst>
 </file>
@@ -480,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="BA2" sqref="BA2:BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,9 +798,15 @@
         <v>8</v>
       </c>
       <c r="BA2" s="5"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
+      <c r="BB2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>90</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_CPP_Course_2023_A\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54EE684-FBE4-48DA-8840-0A6C15E30998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA6E9DE-F954-43FA-A3B5-A4A931DC6F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Student</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Very good!</t>
+  </si>
+  <si>
+    <t>Final Project</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:BE9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AT12" sqref="AT12"/>
+      <selection activeCell="BB2" sqref="BB2:BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,8 +800,12 @@
         <v>27</v>
       </c>
       <c r="BA2" s="5"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
+      <c r="BB2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>80</v>
+      </c>
       <c r="BD2" s="4"/>
       <c r="BE2" s="5"/>
     </row>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_CPP_Course_2023_A\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44577E08-1059-45E2-91EB-FFE1D899C83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EB63FB-42F6-420C-B4FB-83026C52D6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>Student</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>12 CPP</t>
+  </si>
+  <si>
+    <t>Final Project</t>
   </si>
 </sst>
 </file>
@@ -478,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ13"/>
+  <dimension ref="A1:BC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2:AZ2"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AZ11" sqref="AZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +522,7 @@
     <col min="41" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,8 +655,15 @@
       <c r="AZ1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -786,8 +796,17 @@
       <c r="AZ2" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="BA2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>100</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -840,8 +859,11 @@
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -894,8 +916,11 @@
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
       <c r="AZ4" s="4"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -948,8 +973,11 @@
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1002,8 +1030,11 @@
       <c r="AX6" s="4"/>
       <c r="AY6" s="4"/>
       <c r="AZ6" s="4"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1056,8 +1087,11 @@
       <c r="AX7" s="4"/>
       <c r="AY7" s="4"/>
       <c r="AZ7" s="4"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1110,8 +1144,11 @@
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
       <c r="AZ8" s="4"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1164,8 +1201,11 @@
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
       <c r="AZ9" s="4"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1218,8 +1258,11 @@
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
       <c r="AZ10" s="4"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1272,8 +1315,11 @@
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
       <c r="AZ11" s="4"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1326,8 +1372,11 @@
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1380,6 +1429,9 @@
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_CPP_Course_2023_A\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF24DB64-A260-4446-BD95-F647606397A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EF87BA-29DC-4D26-8B94-D408C0E24D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>Student</t>
   </si>
@@ -73,6 +73,33 @@
   </si>
   <si>
     <t>7 CPP</t>
+  </si>
+  <si>
+    <t>Very good!</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>Very good! (didn’t implement copy assignment operator properly - not copying values)</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>Very good (read my comments)</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
+  </si>
+  <si>
+    <t>Final Project</t>
   </si>
 </sst>
 </file>
@@ -443,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AF2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1:BA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +509,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,8 +582,78 @@
       <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -627,14 +724,78 @@
       <c r="AB2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="3">
-        <v>0</v>
+      <c r="AE2" s="4">
+        <v>90</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>90</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>90</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>100</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -663,8 +824,36 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -693,8 +882,36 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -723,8 +940,36 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -753,6 +998,34 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_CPP_Course_2023_A\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAAB10D-783B-4C1C-8CDC-2D8485C71637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A429D1B-B015-485A-94A9-068F71B86803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Student</t>
   </si>
@@ -109,13 +109,19 @@
   </si>
   <si>
     <t>missing item 2 of first question</t>
+  </si>
+  <si>
+    <t>Final Project</t>
+  </si>
+  <si>
+    <t>Well done!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +133,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -479,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ17"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AW2" sqref="AW2:AY2"/>
+      <selection activeCell="BA2" sqref="BA2:BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +530,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,8 +663,18 @@
         <v>2</v>
       </c>
       <c r="AZ1" s="2"/>
-    </row>
-    <row r="2" spans="1:52" ht="150" x14ac:dyDescent="0.25">
+      <c r="BA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD1" s="2"/>
+    </row>
+    <row r="2" spans="1:56" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -785,8 +807,18 @@
         <v>27</v>
       </c>
       <c r="AZ2" s="5"/>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>100</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD2" s="5"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -816,7 +848,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -846,7 +878,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -876,7 +908,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -906,7 +938,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -936,7 +968,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -966,7 +998,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -996,7 +1028,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1026,7 +1058,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1056,7 +1088,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1086,7 +1118,7 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1116,7 +1148,7 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1146,7 +1178,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1176,7 +1208,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1237,6 +1269,7 @@
       <c r="AB17" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_CPP_Course_2023_A\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AF51F2-5DF1-4DEF-96E9-7346DF8E7F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F77B5F-A5B3-4EC6-A840-83A3CC2BEBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
   <si>
     <t>Student</t>
   </si>
@@ -99,13 +99,19 @@
   </si>
   <si>
     <t>12 CPP</t>
+  </si>
+  <si>
+    <t>Final Project reduced</t>
+  </si>
+  <si>
+    <t>read my comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +123,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -469,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ19"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AW2" sqref="AW2:AW19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2:BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +520,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,8 +653,18 @@
       <c r="AZ1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -775,8 +797,18 @@
       <c r="AZ2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>40</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -829,8 +861,12 @@
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -883,8 +919,12 @@
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
       <c r="AZ4" s="4"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -937,8 +977,12 @@
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -991,8 +1035,12 @@
       <c r="AX6" s="4"/>
       <c r="AY6" s="4"/>
       <c r="AZ6" s="4"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1045,8 +1093,12 @@
       <c r="AX7" s="4"/>
       <c r="AY7" s="4"/>
       <c r="AZ7" s="4"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1099,8 +1151,12 @@
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
       <c r="AZ8" s="4"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1153,8 +1209,12 @@
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
       <c r="AZ9" s="4"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1207,8 +1267,12 @@
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
       <c r="AZ10" s="4"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1261,8 +1325,12 @@
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
       <c r="AZ11" s="4"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1315,8 +1383,12 @@
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1369,8 +1441,12 @@
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1423,8 +1499,12 @@
       <c r="AX14" s="4"/>
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1477,8 +1557,12 @@
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1531,8 +1615,12 @@
       <c r="AX16" s="4"/>
       <c r="AY16" s="4"/>
       <c r="AZ16" s="4"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1585,8 +1673,12 @@
       <c r="AX17" s="4"/>
       <c r="AY17" s="4"/>
       <c r="AZ17" s="4"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1639,8 +1731,12 @@
       <c r="AX18" s="4"/>
       <c r="AY18" s="4"/>
       <c r="AZ18" s="4"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1693,8 +1789,13 @@
       <c r="AX19" s="4"/>
       <c r="AY19" s="4"/>
       <c r="AZ19" s="4"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_CPP_Course_2023_A\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0F5C72-1662-4B14-8008-9ED7722902A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE80B631-8337-43CE-9A58-4828B318CA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>Student</t>
   </si>
@@ -76,6 +87,30 @@
   </si>
   <si>
     <t>my comments in the code</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>see my comments</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
+  </si>
+  <si>
+    <t>Final Project</t>
+  </si>
+  <si>
+    <t>Not reading all the dialogs (you accidently started the gui inside the for loop)</t>
   </si>
 </sst>
 </file>
@@ -446,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN16"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="BB1" sqref="BB1:BD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +520,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +623,48 @@
       <c r="AN1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -669,15 +744,65 @@
         <v>16</v>
       </c>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
+      <c r="AH2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>100</v>
+      </c>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="5"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
+      <c r="AL2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>40</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>70</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -718,8 +843,24 @@
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -760,8 +901,24 @@
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -802,8 +959,24 @@
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -844,8 +1017,24 @@
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -886,8 +1075,24 @@
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -928,8 +1133,24 @@
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -970,8 +1191,24 @@
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1012,8 +1249,24 @@
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1054,8 +1307,24 @@
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1096,8 +1365,24 @@
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1138,8 +1423,24 @@
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1180,8 +1481,24 @@
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1222,8 +1539,24 @@
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1264,6 +1597,22 @@
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_CPP_Course_2023_A\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602B7506-5C06-4422-B00D-B7AEBD33D8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63824253-04B3-42AC-B92C-78273E3CE7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
   <si>
     <t>Student</t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>Very good!</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>see my comments</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>not submitted</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
+  </si>
+  <si>
+    <t>Final Project</t>
   </si>
 </sst>
 </file>
@@ -449,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="BD2" sqref="BD2:BD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +512,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,8 +595,68 @@
       <c r="AF1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -655,8 +739,66 @@
       <c r="AF2" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="AG2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>50</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>95</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD2" s="5"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -689,8 +831,32 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="5"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -723,8 +889,32 @@
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="5"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -757,8 +947,32 @@
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -791,8 +1005,32 @@
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="5"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -825,8 +1063,32 @@
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -859,8 +1121,32 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -893,8 +1179,32 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="5"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -927,8 +1237,32 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="5"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -961,8 +1295,32 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="5"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -995,8 +1353,32 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="5"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1029,8 +1411,32 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="5"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1063,6 +1469,30 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_UnrealEngineCourse\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_CPP_Course_2023_A\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602B7506-5C06-4422-B00D-B7AEBD33D8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E49B592-030C-4844-ADB0-06D11D7FA8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>Student</t>
   </si>
@@ -48,21 +48,6 @@
     <t>3 CPP</t>
   </si>
   <si>
-    <t>Great Work!</t>
-  </si>
-  <si>
-    <t>Very Good!</t>
-  </si>
-  <si>
-    <t>Gal Erez</t>
-  </si>
-  <si>
-    <t>Excellent Work!</t>
-  </si>
-  <si>
-    <t>did not create room with windows</t>
-  </si>
-  <si>
     <t>4 UE</t>
   </si>
   <si>
@@ -79,6 +64,33 @@
   </si>
   <si>
     <t>Very good!</t>
+  </si>
+  <si>
+    <t>did not create a room</t>
+  </si>
+  <si>
+    <t>not submitted</t>
+  </si>
+  <si>
+    <t>8 CPP</t>
+  </si>
+  <si>
+    <t>9 CPP</t>
+  </si>
+  <si>
+    <t>10 CPP</t>
+  </si>
+  <si>
+    <t>11 CPP</t>
+  </si>
+  <si>
+    <t>12 CPP</t>
+  </si>
+  <si>
+    <t>Final Project</t>
+  </si>
+  <si>
+    <t>Eli Zeidman</t>
   </si>
 </sst>
 </file>
@@ -449,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1:BA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +500,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,10 +583,70 @@
       <c r="AF1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -582,81 +654,129 @@
       <c r="C2" s="4">
         <v>100</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="5"/>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="4">
-        <v>97</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H2" s="7"/>
       <c r="I2" s="5"/>
       <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="4">
-        <v>93</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S2" s="4">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W2" s="4">
         <v>0</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AA2" s="4">
         <v>0</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>75</v>
+      </c>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" s="4">
-        <v>92</v>
-      </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AM2" s="4">
+        <v>50</v>
+      </c>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="AQ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>95</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -689,8 +809,32 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -723,8 +867,32 @@
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -757,8 +925,32 @@
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -791,8 +983,32 @@
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -825,8 +1041,32 @@
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -859,8 +1099,32 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -893,8 +1157,32 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -927,8 +1215,32 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -961,8 +1273,32 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -995,8 +1331,32 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1029,8 +1389,32 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1063,6 +1447,30 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_CPP_Course_2023_A\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F77B5F-A5B3-4EC6-A840-83A3CC2BEBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E5752-08AC-4127-8018-66062E90F9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>Student</t>
   </si>
@@ -484,7 +484,7 @@
   <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="BB2" sqref="BB2:BD2"/>
+      <selection activeCell="BC3" sqref="BC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,41 +712,33 @@
         <v>11</v>
       </c>
       <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="T2" s="4"/>
       <c r="U2" s="5"/>
       <c r="V2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="W2" s="4">
-        <v>0</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="X2" s="4"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AA2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AB2" s="4"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AE2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AF2" s="4"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="4" t="s">
         <v>15</v>
@@ -762,11 +754,9 @@
         <v>17</v>
       </c>
       <c r="AM2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AN2" s="4"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="4" t="s">
         <v>18</v>
@@ -802,7 +792,7 @@
         <v>21</v>
       </c>
       <c r="BC2" s="4">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="BD2" s="4" t="s">
         <v>22</v>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiltan\Tiltan_CPP_Course_2023_A\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E5752-08AC-4127-8018-66062E90F9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673D8529-28F9-4F4C-AF83-040F37FD8590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -792,7 +792,7 @@
         <v>21</v>
       </c>
       <c r="BC2" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BD2" s="4" t="s">
         <v>22</v>
